--- a/Assets/Resources/Configs/Excel/ShopConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/ShopConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="13040"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -55,46 +55,46 @@
     <t>string</t>
   </si>
   <si>
-    <t>1*109</t>
-  </si>
-  <si>
-    <t>1*110</t>
-  </si>
-  <si>
-    <t>1*111</t>
-  </si>
-  <si>
-    <t>1*112</t>
-  </si>
-  <si>
-    <t>1*113</t>
-  </si>
-  <si>
-    <t>1*114</t>
-  </si>
-  <si>
-    <t>1*115</t>
-  </si>
-  <si>
-    <t>1*116</t>
-  </si>
-  <si>
-    <t>1*117</t>
-  </si>
-  <si>
-    <t>1*300</t>
-  </si>
-  <si>
-    <t>1*301</t>
-  </si>
-  <si>
-    <t>1*302</t>
-  </si>
-  <si>
-    <t>1*303</t>
-  </si>
-  <si>
-    <t>1*1000</t>
+    <t>1*1*109</t>
+  </si>
+  <si>
+    <t>1*1*110</t>
+  </si>
+  <si>
+    <t>1*1*111</t>
+  </si>
+  <si>
+    <t>1*1*112</t>
+  </si>
+  <si>
+    <t>1*1*113</t>
+  </si>
+  <si>
+    <t>1*1*114</t>
+  </si>
+  <si>
+    <t>1*1*115</t>
+  </si>
+  <si>
+    <t>1*1*116</t>
+  </si>
+  <si>
+    <t>1*1*117</t>
+  </si>
+  <si>
+    <t>1*1*300</t>
+  </si>
+  <si>
+    <t>1*1*301</t>
+  </si>
+  <si>
+    <t>1*1*302</t>
+  </si>
+  <si>
+    <t>1*1*303</t>
+  </si>
+  <si>
+    <t>1*1*1000</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/Assets/Resources/Configs/Excel/ShopConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/ShopConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="7440"/>
+    <workbookView windowWidth="18480" windowHeight="8540"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>商品信息</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>1*1*1000</t>
+  </si>
+  <si>
+    <t>1*1*1001</t>
+  </si>
+  <si>
+    <t>1*1*1002</t>
+  </si>
+  <si>
+    <t>1*1*1003</t>
+  </si>
+  <si>
+    <t>1*1*1004</t>
+  </si>
+  <si>
+    <t>1*1*1005</t>
+  </si>
+  <si>
+    <t>1*1*1006</t>
   </si>
 </sst>
 </file>
@@ -102,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -504,10 +522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -880,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -889,6 +907,126 @@
         <v>26</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/Excel/ShopConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/ShopConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="8540"/>
+    <workbookView windowWidth="28680" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -524,8 +524,8 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="B4:B25 I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>11</v>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>13</v>
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>14</v>
@@ -695,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
@@ -715,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -735,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>17</v>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>18</v>
@@ -775,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>19</v>
@@ -795,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>21</v>
@@ -815,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>32</v>
@@ -835,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>37</v>
@@ -855,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>39</v>
@@ -875,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>33</v>
@@ -915,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>34</v>
@@ -935,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>35</v>
@@ -955,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>36</v>
@@ -975,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>37</v>
@@ -995,7 +995,7 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>38</v>
@@ -1015,7 +1015,7 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>39</v>
